--- a/src/test/java/com/dash2sell/testData/LoginData.xlsx
+++ b/src/test/java/com/dash2sell/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9220A38B-8997-4F65-9306-014B1BF2936B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4615498B-FA9D-40E9-B47B-F6711F211BDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" xr2:uid="{674F312D-B79F-4037-AEED-F2C10957C985}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="29070" windowHeight="16500" xr2:uid="{1F808F70-1C76-4E00-959B-B8814A44ADC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,29 +16,29 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>user</t>
   </si>
   <si>
-    <t>password</t>
+    <t>pwd</t>
   </si>
   <si>
-    <t>parvem</t>
+    <t>brownp</t>
   </si>
   <si>
-    <t>Anderson1!</t>
-  </si>
-  <si>
-    <t>Shoresj</t>
-  </si>
-  <si>
-    <t>Anderson2</t>
+    <t>Anderson2!</t>
   </si>
 </sst>
 </file>
@@ -389,17 +389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FA360D-2E22-4DE3-BA47-BD4AA1F746E4}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9143778C-707A-4276-82E7-F8A34770FE24}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,16 +417,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
